--- a/data/Hof_luetke_input_table.xlsx
+++ b/data/Hof_luetke_input_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\REFOREST\Project_report\Deliverables\D4.3_Model_Comparison\Fruit_Honey_Agroforestry\Fruit_Honey_Agroforestry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C9CD5-B1CC-44FE-AEBF-B55CC7AF416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4116C9-1828-418B-95D5-5457BEF689C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Sheet5" sheetId="10" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="445">
   <si>
     <t>variable</t>
   </si>
@@ -849,12 +850,6 @@
     <t>pc_soil_loss_p</t>
   </si>
   <si>
-    <t>es3_subsidy_c</t>
-  </si>
-  <si>
-    <t>Eco Scheme 3 AF subsidy</t>
-  </si>
-  <si>
     <t>es3_application_p</t>
   </si>
   <si>
@@ -1324,6 +1319,51 @@
   </si>
   <si>
     <t>Data analyst;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>yield_reduc_max_p</t>
+  </si>
+  <si>
+    <t>Max. yield reduction due to shading and resource competition</t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>year in number</t>
+  </si>
+  <si>
+    <t>Year in which the effect of tree on crop starts first</t>
+  </si>
+  <si>
+    <t>Year in which the effect of tree on crop starts second</t>
+  </si>
+  <si>
+    <t>Percentage of the maximum yield reduction in the first year</t>
+  </si>
+  <si>
+    <t>Percentage of the maximum yield reduction in the second year</t>
+  </si>
+  <si>
+    <t>time_to_first_reduction_c</t>
+  </si>
+  <si>
+    <t>time_to_second_reduction_c</t>
+  </si>
+  <si>
+    <t>perc_max_first_reduction_p</t>
+  </si>
+  <si>
+    <t>perc_max_second_reduction_p</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>af_labour_increase_p</t>
+  </si>
+  <si>
+    <t>Percentage increase in Labour costs</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EB13FF-B49E-48DA-AF68-BF4FA577ED42}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,74 +1722,1150 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ECDEC-FCEE-4783-B63A-621572615871}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>330</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" t="s">
+        <v>337</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>363</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" t="s">
+        <v>337</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" t="s">
+        <v>337</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" t="s">
+        <v>337</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+      <c r="H24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" t="s">
+        <v>337</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" t="s">
+        <v>337</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>372</v>
+      </c>
+      <c r="H28" t="s">
+        <v>337</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" t="s">
+        <v>337</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>374</v>
+      </c>
+      <c r="H30" t="s">
+        <v>337</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>375</v>
+      </c>
+      <c r="H31" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>377</v>
+      </c>
+      <c r="H33" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>378</v>
+      </c>
+      <c r="H34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>379</v>
+      </c>
+      <c r="H35" t="s">
+        <v>337</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" t="s">
+        <v>337</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +2904,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1826,13 +2942,13 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1855,13 +2971,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1884,13 +3000,13 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1913,18 +3029,18 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6" s="1">
         <v>1000</v>
@@ -1936,22 +3052,22 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" t="s">
         <v>342</v>
       </c>
-      <c r="F6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G6" t="s">
-        <v>344</v>
-      </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I6">
         <v>1000</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB985FE-FA28-4C6F-8B6A-6B41B0A1D520}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1989,22 +3105,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,13 +3143,13 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2056,13 +3172,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I3">
         <v>0.01</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2085,13 +3201,13 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2114,13 +3230,13 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2143,13 +3259,13 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,13 +3288,13 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <v>0.1</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2201,13 +3317,13 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2230,13 +3346,13 @@
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I9">
         <v>0.1</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2259,13 +3375,13 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10">
         <v>0.01</v>
       </c>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2288,13 +3404,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2317,13 +3433,13 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12">
         <v>0.01</v>
       </c>
       <c r="J12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2346,13 +3462,13 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>0.1</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2375,13 +3491,13 @@
         <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2404,13 +3520,13 @@
         <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2433,13 +3549,13 @@
         <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2462,13 +3578,13 @@
         <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2491,13 +3607,13 @@
         <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I18">
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,13 +3636,13 @@
         <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2549,13 +3665,13 @@
         <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2578,13 +3694,13 @@
         <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I21">
         <v>1E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2607,13 +3723,13 @@
         <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2636,13 +3752,13 @@
         <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942B760E-2A26-4E76-A6C4-ACB8469C712B}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -2680,22 +3796,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2718,13 +3834,13 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2747,13 +3863,13 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2776,13 +3892,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2805,13 +3921,13 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2834,13 +3950,13 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2863,13 +3979,13 @@
         <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2889,16 +4005,16 @@
         <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2921,13 +4037,13 @@
         <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2950,13 +4066,13 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2979,13 +4095,13 @@
         <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3005,16 +4121,16 @@
         <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3037,13 +4153,13 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3066,13 +4182,13 @@
         <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3095,13 +4211,13 @@
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I15">
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3121,16 +4237,16 @@
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3153,13 +4269,13 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I17">
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3182,13 +4298,13 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3211,13 +4327,13 @@
         <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19">
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3240,13 +4356,13 @@
         <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3266,16 +4382,16 @@
         <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3298,13 +4414,13 @@
         <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3327,13 +4443,13 @@
         <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I23">
         <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3356,13 +4472,13 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I24">
         <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3382,16 +4498,16 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3414,13 +4530,13 @@
         <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3443,13 +4559,13 @@
         <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I27">
         <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3472,13 +4588,13 @@
         <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I28">
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3498,16 +4614,16 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3530,13 +4646,13 @@
         <v>99</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3559,13 +4675,13 @@
         <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I31">
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -3588,13 +4704,13 @@
         <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I32">
         <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3614,16 +4730,16 @@
         <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3646,13 +4762,13 @@
         <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3675,13 +4791,13 @@
         <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I35">
         <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3704,13 +4820,13 @@
         <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I36">
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3730,16 +4846,16 @@
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3762,13 +4878,13 @@
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3791,13 +4907,13 @@
         <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I39">
         <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -3820,13 +4936,13 @@
         <v>114</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I40">
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -3846,16 +4962,16 @@
         <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3878,13 +4994,13 @@
         <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -3907,13 +5023,13 @@
         <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I43">
         <v>50</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3936,13 +5052,13 @@
         <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I44">
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3962,16 +5078,16 @@
         <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3983,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797F78F4-8594-4027-AE8B-FFCD2F5C7CA1}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4009,22 +5125,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4047,13 +5163,13 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4076,13 +5192,13 @@
         <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4105,13 +5221,13 @@
         <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4134,13 +5250,13 @@
         <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4163,13 +5279,13 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4192,13 +5308,13 @@
         <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4221,13 +5337,13 @@
         <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4250,13 +5366,13 @@
         <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4279,13 +5395,13 @@
         <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4308,13 +5424,13 @@
         <v>160</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4337,13 +5453,13 @@
         <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12">
         <v>0.01</v>
       </c>
       <c r="J12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4366,13 +5482,13 @@
         <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4395,13 +5511,13 @@
         <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4424,13 +5540,13 @@
         <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I15">
         <v>0.1</v>
       </c>
       <c r="J15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4453,13 +5569,13 @@
         <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I16">
         <v>0.1</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4482,13 +5598,13 @@
         <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I17">
         <v>0.01</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4511,13 +5627,13 @@
         <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4540,13 +5656,13 @@
         <v>179</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19">
         <v>0.1</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4569,13 +5685,13 @@
         <v>182</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4598,13 +5714,13 @@
         <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I21">
         <v>0.1</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4627,13 +5743,13 @@
         <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I22">
         <v>0.01</v>
       </c>
       <c r="J22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4656,13 +5772,13 @@
         <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I23">
         <v>0.01</v>
       </c>
       <c r="J23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4685,13 +5801,13 @@
         <v>190</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4714,13 +5830,13 @@
         <v>192</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4740,16 +5856,16 @@
         <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4769,16 +5885,16 @@
         <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4801,13 +5917,13 @@
         <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4830,13 +5946,13 @@
         <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4859,13 +5975,13 @@
         <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4888,13 +6004,13 @@
         <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4917,13 +6033,13 @@
         <v>206</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I32">
         <v>0.01</v>
       </c>
       <c r="J32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4946,13 +6062,13 @@
         <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I33">
         <v>0.1</v>
       </c>
       <c r="J33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4975,13 +6091,13 @@
         <v>150</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I34">
         <v>0.1</v>
       </c>
       <c r="J34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,13 +6120,13 @@
         <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5033,13 +6149,13 @@
         <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5062,13 +6178,13 @@
         <v>158</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5091,13 +6207,13 @@
         <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5120,13 +6236,13 @@
         <v>188</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I39">
         <v>0.01</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5149,13 +6265,13 @@
         <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5165,10 +6281,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E54255-579E-4F04-A2B8-BD0D5615FDD5}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5194,22 +6310,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5229,16 +6345,16 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
         <v>0.1</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5258,16 +6374,16 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>0.1</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5287,16 +6403,16 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>0.1</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5316,16 +6432,16 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
         <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5348,13 +6464,13 @@
         <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>0.01</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5374,16 +6490,16 @@
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <v>0.01</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5403,16 +6519,16 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5432,16 +6548,16 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I9">
         <v>0.01</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5461,16 +6577,16 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10">
         <v>0.01</v>
       </c>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5490,16 +6606,16 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>0.1</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5519,16 +6635,16 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12">
         <v>0.1</v>
       </c>
       <c r="J12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5548,16 +6664,16 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5577,335 +6693,248 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>345</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>338</v>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1E-3</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B17">
-        <v>1E-3</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>406</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I17">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>274</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I18">
         <v>0.1</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B19">
-        <v>600</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>274</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>3.1E-4</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I21">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B22">
-        <v>5.0000000000000004E-6</v>
+        <v>0.08</v>
       </c>
       <c r="C22">
-        <v>3.1E-4</v>
+        <v>0.1</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I22">
-        <v>9.9999999999999995E-7</v>
+        <v>0.01</v>
       </c>
       <c r="J22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24">
-        <v>0.08</v>
-      </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24">
-        <v>0.01</v>
-      </c>
-      <c r="J24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25">
-        <v>0.05</v>
-      </c>
-      <c r="C25">
-        <v>0.1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>285</v>
-      </c>
-      <c r="H25" t="s">
-        <v>339</v>
-      </c>
-      <c r="I25">
-        <v>0.01</v>
-      </c>
-      <c r="J25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5917,7 +6946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9F622-35A1-4F1B-86DE-F0B57E5D5358}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -5943,22 +6972,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5978,16 +7007,16 @@
         <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6007,16 +7036,16 @@
         <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6036,16 +7065,16 @@
         <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6065,16 +7094,16 @@
         <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6094,16 +7123,16 @@
         <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6123,16 +7152,16 @@
         <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
         <v>0.1</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6152,16 +7181,16 @@
         <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6181,16 +7210,16 @@
         <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6210,16 +7239,16 @@
         <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10">
         <v>0.1</v>
       </c>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6239,16 +7268,16 @@
         <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6268,16 +7297,16 @@
         <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6297,16 +7326,16 @@
         <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6326,16 +7355,16 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6355,16 +7384,16 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6387,13 +7416,13 @@
         <v>261</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I16">
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -6413,16 +7442,16 @@
         <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I17">
         <v>0.1</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6445,13 +7474,13 @@
         <v>264</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I18">
         <v>0.1</v>
       </c>
       <c r="J18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6474,13 +7503,13 @@
         <v>266</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -6503,13 +7532,13 @@
         <v>269</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6522,7 +7551,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6547,22 +7576,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6582,16 +7611,16 @@
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6611,16 +7640,16 @@
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6640,16 +7669,16 @@
         <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6658,16 +7687,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ECDEC-FCEE-4783-B63A-621572615871}">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A70914-F1C6-4637-A521-4EC93177838B}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6687,33 +7717,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -6722,85 +7752,85 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -6809,27 +7839,27 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>441</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -6838,27 +7868,27 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -6867,56 +7897,56 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>345</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>443</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -6925,799 +7955,16 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" t="s">
-        <v>339</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H11" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" t="s">
-        <v>339</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>359</v>
-      </c>
-      <c r="H13" t="s">
-        <v>339</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" t="s">
-        <v>339</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>361</v>
-      </c>
-      <c r="H15" t="s">
-        <v>339</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" t="s">
-        <v>339</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>363</v>
-      </c>
-      <c r="H17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" t="s">
-        <v>339</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H20" t="s">
-        <v>339</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>367</v>
-      </c>
-      <c r="H21" t="s">
-        <v>339</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>306</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>368</v>
-      </c>
-      <c r="H22" t="s">
-        <v>339</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>371</v>
-      </c>
-      <c r="H25" t="s">
-        <v>339</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>310</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>372</v>
-      </c>
-      <c r="H26" t="s">
-        <v>339</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" t="s">
-        <v>339</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>374</v>
-      </c>
-      <c r="H28" t="s">
-        <v>339</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H29" t="s">
-        <v>339</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>314</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H30" t="s">
-        <v>339</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>315</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>377</v>
-      </c>
-      <c r="H31" t="s">
-        <v>339</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>378</v>
-      </c>
-      <c r="H32" t="s">
-        <v>339</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>379</v>
-      </c>
-      <c r="H33" t="s">
-        <v>339</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>318</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>380</v>
-      </c>
-      <c r="H34" t="s">
-        <v>339</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>381</v>
-      </c>
-      <c r="H35" t="s">
-        <v>339</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>320</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H36" t="s">
-        <v>339</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>340</v>
+        <v>444</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data/Hof_luetke_input_table.xlsx
+++ b/data/Hof_luetke_input_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\REFOREST\Project_report\Deliverables\D4.3_Model_Comparison\Fruit_Honey_Agroforestry\Fruit_Honey_Agroforestry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71E434-DA01-4DDE-9D5C-F9756B8967A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD799723-6AC7-48AB-B62A-0A97FD8F6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="477">
   <si>
     <t>variable</t>
   </si>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2ECDEC-FCEE-4783-B63A-621572615871}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -3206,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB985FE-FA28-4C6F-8B6A-6B41B0A1D520}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3516,57 +3516,57 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>264</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12">
         <v>100</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>293</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -3589,71 +3589,71 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>264</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
         <v>264</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H15" t="s">
         <v>264</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J15" t="s">
         <v>295</v>
@@ -3661,28 +3661,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>264</v>
       </c>
       <c r="I16">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J16" t="s">
         <v>295</v>
@@ -3690,13 +3690,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -3705,13 +3705,13 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s">
         <v>264</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J17" t="s">
         <v>295</v>
@@ -3719,28 +3719,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
         <v>264</v>
       </c>
       <c r="I18">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>295</v>
@@ -3748,28 +3748,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>0.25</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" t="s">
         <v>264</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J19" t="s">
         <v>295</v>
@@ -3777,28 +3777,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" t="s">
+        <v>264</v>
+      </c>
+      <c r="I20">
         <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>0.25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20">
-        <v>0.01</v>
       </c>
       <c r="J20" t="s">
         <v>295</v>
@@ -3806,42 +3806,42 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -3850,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>263</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -3879,7 +3879,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
         <v>263</v>
@@ -3893,13 +3893,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>4251</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>4251</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3908,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H24" t="s">
         <v>263</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
         <v>298</v>
@@ -3922,13 +3922,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25">
-        <v>4251</v>
+        <v>781</v>
       </c>
       <c r="C25">
-        <v>4251</v>
+        <v>781</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -3937,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="H25" t="s">
         <v>263</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>298</v>
@@ -3951,28 +3951,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26">
-        <v>781</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>781</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I26">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>298</v>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -3995,7 +3995,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H27" t="s">
         <v>264</v>
@@ -4009,28 +4009,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>1E-3</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="J28" t="s">
         <v>298</v>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1.5E-3</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -4053,13 +4053,13 @@
         <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
         <v>264</v>
       </c>
       <c r="I29">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>298</v>
@@ -4067,59 +4067,30 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2450</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>3700</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H30" t="s">
         <v>264</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31">
-        <v>2450</v>
-      </c>
-      <c r="C31">
-        <v>3700</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>317</v>
-      </c>
-      <c r="H31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="J31" t="s">
         <v>298</v>
       </c>
     </row>
